--- a/Code/Results/Cases/Case_5_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_241/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9991285098028984</v>
+        <v>1.049779759218475</v>
       </c>
       <c r="D2">
-        <v>1.016485855226508</v>
+        <v>1.046719066332263</v>
       </c>
       <c r="E2">
-        <v>1.011202906029013</v>
+        <v>1.055985252378272</v>
       </c>
       <c r="F2">
-        <v>1.013710839572544</v>
+        <v>1.064647919388417</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044882787476459</v>
+        <v>1.037891377006613</v>
       </c>
       <c r="J2">
-        <v>1.021335318274333</v>
+        <v>1.05481639696388</v>
       </c>
       <c r="K2">
-        <v>1.02772019603346</v>
+        <v>1.049483715523721</v>
       </c>
       <c r="L2">
-        <v>1.022508342097052</v>
+        <v>1.058724206674619</v>
       </c>
       <c r="M2">
-        <v>1.024982409001629</v>
+        <v>1.067363290219442</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007664093016756</v>
+        <v>1.051422459474209</v>
       </c>
       <c r="D3">
-        <v>1.02277730724927</v>
+        <v>1.047919464890359</v>
       </c>
       <c r="E3">
-        <v>1.018766364993565</v>
+        <v>1.057491640126349</v>
       </c>
       <c r="F3">
-        <v>1.02209407423693</v>
+        <v>1.066341427089232</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047580657694903</v>
+        <v>1.038281166959796</v>
       </c>
       <c r="J3">
-        <v>1.027947985447478</v>
+        <v>1.056105125808099</v>
       </c>
       <c r="K3">
-        <v>1.033126812596337</v>
+        <v>1.050494804132188</v>
       </c>
       <c r="L3">
-        <v>1.029164628039491</v>
+        <v>1.060042379528144</v>
       </c>
       <c r="M3">
-        <v>1.032451851493716</v>
+        <v>1.068869846434747</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013000115960674</v>
+        <v>1.05248305601586</v>
       </c>
       <c r="D4">
-        <v>1.026711474996381</v>
+        <v>1.048693893065422</v>
       </c>
       <c r="E4">
-        <v>1.023501062280377</v>
+        <v>1.058464461607182</v>
       </c>
       <c r="F4">
-        <v>1.027344233926713</v>
+        <v>1.067435532105449</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049249990188615</v>
+        <v>1.038530648265959</v>
       </c>
       <c r="J4">
-        <v>1.032077023681234</v>
+        <v>1.056936347906305</v>
       </c>
       <c r="K4">
-        <v>1.036497860350535</v>
+        <v>1.051146174450458</v>
       </c>
       <c r="L4">
-        <v>1.033323888718209</v>
+        <v>1.060892912643392</v>
       </c>
       <c r="M4">
-        <v>1.037123470005182</v>
+        <v>1.069842515340153</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015201442670432</v>
+        <v>1.052928382075462</v>
       </c>
       <c r="D5">
-        <v>1.028334581197213</v>
+        <v>1.049018917043822</v>
       </c>
       <c r="E5">
-        <v>1.025455752679373</v>
+        <v>1.058872987815109</v>
       </c>
       <c r="F5">
-        <v>1.029512311285725</v>
+        <v>1.067895096139295</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049934433481574</v>
+        <v>1.03863487767489</v>
       </c>
       <c r="J5">
-        <v>1.03377916976663</v>
+        <v>1.057285163016613</v>
       </c>
       <c r="K5">
-        <v>1.037886311352338</v>
+        <v>1.051419330001378</v>
       </c>
       <c r="L5">
-        <v>1.035039209034638</v>
+        <v>1.061249908183965</v>
       </c>
       <c r="M5">
-        <v>1.0390511250455</v>
+        <v>1.070250915126878</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015568673523386</v>
+        <v>1.053003122437076</v>
       </c>
       <c r="D6">
-        <v>1.028605353597759</v>
+        <v>1.049073458217405</v>
       </c>
       <c r="E6">
-        <v>1.025781920711845</v>
+        <v>1.058941555179441</v>
       </c>
       <c r="F6">
-        <v>1.029874121101263</v>
+        <v>1.067972235961908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05004836308143</v>
+        <v>1.038652340077506</v>
       </c>
       <c r="J6">
-        <v>1.034063050260621</v>
+        <v>1.05734369388453</v>
       </c>
       <c r="K6">
-        <v>1.038117801267327</v>
+        <v>1.051465154314116</v>
       </c>
       <c r="L6">
-        <v>1.035325328771592</v>
+        <v>1.061309816226209</v>
       </c>
       <c r="M6">
-        <v>1.03937272393818</v>
+        <v>1.070319457622475</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013029691423412</v>
+        <v>1.052489008624616</v>
       </c>
       <c r="D7">
-        <v>1.026733281689875</v>
+        <v>1.048698238185375</v>
       </c>
       <c r="E7">
-        <v>1.023527318554027</v>
+        <v>1.058469922100866</v>
       </c>
       <c r="F7">
-        <v>1.027373354164452</v>
+        <v>1.067441674369938</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049259202729102</v>
+        <v>1.038532043543998</v>
       </c>
       <c r="J7">
-        <v>1.032099897563194</v>
+        <v>1.056941011256555</v>
       </c>
       <c r="K7">
-        <v>1.036516523616814</v>
+        <v>1.051149827032658</v>
       </c>
       <c r="L7">
-        <v>1.033346936804903</v>
+        <v>1.060897685056856</v>
       </c>
       <c r="M7">
-        <v>1.037149367038052</v>
+        <v>1.069847974388837</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002053690634671</v>
+        <v>1.050335409035238</v>
       </c>
       <c r="D8">
-        <v>1.018641638589437</v>
+        <v>1.047125229401511</v>
       </c>
       <c r="E8">
-        <v>1.013793516434466</v>
+        <v>1.056494745022864</v>
       </c>
       <c r="F8">
-        <v>1.016581774595493</v>
+        <v>1.065220608550963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045810953466377</v>
+        <v>1.038023677354945</v>
       </c>
       <c r="J8">
-        <v>1.02360248695882</v>
+        <v>1.055252487491488</v>
       </c>
       <c r="K8">
-        <v>1.029574881564289</v>
+        <v>1.049826016437621</v>
       </c>
       <c r="L8">
-        <v>1.024789831925906</v>
+        <v>1.059170194438135</v>
       </c>
       <c r="M8">
-        <v>1.027541723717329</v>
+        <v>1.067872894169933</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9811348547043292</v>
+        <v>1.046522046270962</v>
       </c>
       <c r="D9">
-        <v>1.003236885174422</v>
+        <v>1.04433536220758</v>
       </c>
       <c r="E9">
-        <v>0.99530003024637</v>
+        <v>1.052999143638482</v>
       </c>
       <c r="F9">
-        <v>0.9960955420649951</v>
+        <v>1.061293227389028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039102091207127</v>
+        <v>1.037106751968268</v>
       </c>
       <c r="J9">
-        <v>1.007371841113801</v>
+        <v>1.052256228533952</v>
       </c>
       <c r="K9">
-        <v>1.016277663569481</v>
+        <v>1.047470986582579</v>
       </c>
       <c r="L9">
-        <v>1.008469824230795</v>
+        <v>1.056107247268729</v>
       </c>
       <c r="M9">
-        <v>1.009252285611204</v>
+        <v>1.06437544449139</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9658930479615533</v>
+        <v>1.04396667154221</v>
       </c>
       <c r="D10">
-        <v>0.9920374931321438</v>
+        <v>1.042462862256719</v>
       </c>
       <c r="E10">
-        <v>0.9818739504891628</v>
+        <v>1.050657977241498</v>
       </c>
       <c r="F10">
-        <v>0.9812315259017261</v>
+        <v>1.058665140362748</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034127066248251</v>
+        <v>1.036481066908011</v>
       </c>
       <c r="J10">
-        <v>0.9955284205511794</v>
+        <v>1.050244127970698</v>
       </c>
       <c r="K10">
-        <v>1.006552016896486</v>
+        <v>1.045885527599277</v>
       </c>
       <c r="L10">
-        <v>0.9965783745406529</v>
+        <v>1.054052009273655</v>
       </c>
       <c r="M10">
-        <v>0.9959481261441436</v>
+        <v>1.062031666704186</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9589214042082458</v>
+        <v>1.042856887425301</v>
       </c>
       <c r="D11">
-        <v>0.9869242726010887</v>
+        <v>1.041648957671883</v>
       </c>
       <c r="E11">
-        <v>0.9757468015786049</v>
+        <v>1.049641533644228</v>
       </c>
       <c r="F11">
-        <v>0.9744494869320744</v>
+        <v>1.05752466011835</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031832631364612</v>
+        <v>1.036206676841025</v>
       </c>
       <c r="J11">
-        <v>0.9901089032145302</v>
+        <v>1.049369277515472</v>
       </c>
       <c r="K11">
-        <v>1.002097063871338</v>
+        <v>1.045195245158143</v>
       </c>
       <c r="L11">
-        <v>0.9911410645017072</v>
+        <v>1.053158791693065</v>
       </c>
       <c r="M11">
-        <v>0.9898698883290136</v>
+        <v>1.061013760375718</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9562693449372133</v>
+        <v>1.042444155707767</v>
       </c>
       <c r="D12">
-        <v>0.9849809343960327</v>
+        <v>1.041346162354366</v>
       </c>
       <c r="E12">
-        <v>0.9734183373343417</v>
+        <v>1.049263563034532</v>
       </c>
       <c r="F12">
-        <v>0.9718722721697489</v>
+        <v>1.057100645555484</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030957160216043</v>
+        <v>1.036104231654054</v>
       </c>
       <c r="J12">
-        <v>0.988047123383166</v>
+        <v>1.049043767548334</v>
       </c>
       <c r="K12">
-        <v>1.000401645803313</v>
+        <v>1.04493826872574</v>
       </c>
       <c r="L12">
-        <v>0.9890731558093597</v>
+        <v>1.052826506058558</v>
       </c>
       <c r="M12">
-        <v>0.987558951167567</v>
+        <v>1.060635196146535</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9568411665778762</v>
+        <v>1.042532711301673</v>
       </c>
       <c r="D13">
-        <v>0.9853998599834365</v>
+        <v>1.04141113461779</v>
       </c>
       <c r="E13">
-        <v>0.9739202773054398</v>
+        <v>1.049344658133246</v>
       </c>
       <c r="F13">
-        <v>0.9724278303100947</v>
+        <v>1.057191615961115</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031146040748013</v>
+        <v>1.03612623029426</v>
       </c>
       <c r="J13">
-        <v>0.9884916763062692</v>
+        <v>1.04911361567897</v>
       </c>
       <c r="K13">
-        <v>1.000767230484229</v>
+        <v>1.044993417193804</v>
       </c>
       <c r="L13">
-        <v>0.9895190011374588</v>
+        <v>1.0528978054815</v>
       </c>
       <c r="M13">
-        <v>0.9880571615684011</v>
+        <v>1.06071642086142</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9587035010147056</v>
+        <v>1.042822781348342</v>
       </c>
       <c r="D14">
-        <v>0.9867645626943533</v>
+        <v>1.041623938258286</v>
       </c>
       <c r="E14">
-        <v>0.9755554372016322</v>
+        <v>1.04961029907727</v>
       </c>
       <c r="F14">
-        <v>0.9742376770200056</v>
+        <v>1.057489618965766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031760751949062</v>
+        <v>1.036198219413001</v>
       </c>
       <c r="J14">
-        <v>0.989939501669684</v>
+        <v>1.04934238207596</v>
       </c>
       <c r="K14">
-        <v>1.001957775099598</v>
+        <v>1.045174015182269</v>
       </c>
       <c r="L14">
-        <v>0.990971146360285</v>
+        <v>1.053131335222799</v>
       </c>
       <c r="M14">
-        <v>0.9896799861918064</v>
+        <v>1.060982477768453</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9598424505263105</v>
+        <v>1.043001435271375</v>
       </c>
       <c r="D15">
-        <v>0.9875994178064567</v>
+        <v>1.041754990396264</v>
       </c>
       <c r="E15">
-        <v>0.97655576861696</v>
+        <v>1.049773913450694</v>
       </c>
       <c r="F15">
-        <v>0.9753448892352622</v>
+        <v>1.057673176439891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032136349126252</v>
+        <v>1.036242504662504</v>
       </c>
       <c r="J15">
-        <v>0.990824934549698</v>
+        <v>1.049483259184321</v>
       </c>
       <c r="K15">
-        <v>1.002685790148424</v>
+        <v>1.045285211136155</v>
       </c>
       <c r="L15">
-        <v>0.9918593054360777</v>
+        <v>1.053275153369447</v>
       </c>
       <c r="M15">
-        <v>0.9906726306162731</v>
+        <v>1.061146341753088</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9663473588213173</v>
+        <v>1.044040253733997</v>
       </c>
       <c r="D16">
-        <v>0.9923709209534971</v>
+        <v>1.04251681233129</v>
       </c>
       <c r="E16">
-        <v>0.9822735368825455</v>
+        <v>1.050725377275118</v>
       </c>
       <c r="F16">
-        <v>0.9816738426996683</v>
+        <v>1.058740776421532</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034276210480882</v>
+        <v>1.036499203941616</v>
       </c>
       <c r="J16">
-        <v>0.9958815537792651</v>
+        <v>1.050302112175512</v>
       </c>
       <c r="K16">
-        <v>1.006842213360323</v>
+        <v>1.045931259241769</v>
       </c>
       <c r="L16">
-        <v>0.9969327542310437</v>
+        <v>1.05411121899995</v>
       </c>
       <c r="M16">
-        <v>0.9963443800473691</v>
+        <v>1.062099156784269</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.970323826981266</v>
+        <v>1.044690986306284</v>
       </c>
       <c r="D17">
-        <v>0.9952904228858169</v>
+        <v>1.04299384674108</v>
       </c>
       <c r="E17">
-        <v>0.9857726086544045</v>
+        <v>1.051321473201501</v>
       </c>
       <c r="F17">
-        <v>0.9855472346179682</v>
+        <v>1.059409774450106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035579537218466</v>
+        <v>1.036659294297539</v>
       </c>
       <c r="J17">
-        <v>0.9989722005611544</v>
+        <v>1.05081478606875</v>
       </c>
       <c r="K17">
-        <v>1.009381535040759</v>
+        <v>1.04633549319946</v>
       </c>
       <c r="L17">
-        <v>1.000034780597285</v>
+        <v>1.054634773281223</v>
       </c>
       <c r="M17">
-        <v>0.9998135092277438</v>
+        <v>1.062696011111117</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9726078567850718</v>
+        <v>1.045070231135891</v>
       </c>
       <c r="D18">
-        <v>0.9969681991706852</v>
+        <v>1.043271794388823</v>
       </c>
       <c r="E18">
-        <v>0.9877837155575822</v>
+        <v>1.051668905883737</v>
       </c>
       <c r="F18">
-        <v>0.9877736133276671</v>
+        <v>1.059799749278852</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036326379084364</v>
+        <v>1.036752338313102</v>
       </c>
       <c r="J18">
-        <v>1.000747198119915</v>
+        <v>1.051113473710274</v>
       </c>
       <c r="K18">
-        <v>1.010839471465629</v>
+        <v>1.046570913038085</v>
       </c>
       <c r="L18">
-        <v>1.001816703307066</v>
+        <v>1.054939837348564</v>
       </c>
       <c r="M18">
-        <v>1.001806781101125</v>
+        <v>1.063043854152571</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.973380834846249</v>
+        <v>1.045199490570631</v>
       </c>
       <c r="D19">
-        <v>0.9975361397729562</v>
+        <v>1.04336651700809</v>
       </c>
       <c r="E19">
-        <v>0.9884645408117722</v>
+        <v>1.051787327715473</v>
       </c>
       <c r="F19">
-        <v>0.9885273391631738</v>
+        <v>1.059932680251583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036578825407174</v>
+        <v>1.036784007389951</v>
       </c>
       <c r="J19">
-        <v>1.0013478619834</v>
+        <v>1.051215260059891</v>
       </c>
       <c r="K19">
-        <v>1.011332766015423</v>
+        <v>1.046651123810353</v>
       </c>
       <c r="L19">
-        <v>1.002419776475298</v>
+        <v>1.055043803000409</v>
       </c>
       <c r="M19">
-        <v>1.00248146387104</v>
+        <v>1.063162410490579</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9699008930870764</v>
+        <v>1.044621201696357</v>
       </c>
       <c r="D20">
-        <v>0.9949798159229176</v>
+        <v>1.042942696400481</v>
       </c>
       <c r="E20">
-        <v>0.9854003147244172</v>
+        <v>1.051257544729012</v>
       </c>
       <c r="F20">
-        <v>0.985135100820078</v>
+        <v>1.059338022257549</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035441099591357</v>
+        <v>1.036642152691697</v>
       </c>
       <c r="J20">
-        <v>0.9986435044377578</v>
+        <v>1.050759816918101</v>
       </c>
       <c r="K20">
-        <v>1.009111517361186</v>
+        <v>1.046292160329785</v>
       </c>
       <c r="L20">
-        <v>0.9997048336118274</v>
+        <v>1.054578633657541</v>
       </c>
       <c r="M20">
-        <v>0.9994444665064069</v>
+        <v>1.062632004582673</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9581568734790857</v>
+        <v>1.042737377100782</v>
       </c>
       <c r="D21">
-        <v>0.9863639472746721</v>
+        <v>1.041561286074653</v>
       </c>
       <c r="E21">
-        <v>0.9750754229315072</v>
+        <v>1.049532086082275</v>
       </c>
       <c r="F21">
-        <v>0.9737063793154471</v>
+        <v>1.057401875368557</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031580394749708</v>
+        <v>1.036177034923129</v>
       </c>
       <c r="J21">
-        <v>0.989514542506047</v>
+        <v>1.049275031388861</v>
       </c>
       <c r="K21">
-        <v>1.001608347348429</v>
+        <v>1.045120849513275</v>
       </c>
       <c r="L21">
-        <v>0.9905449015896796</v>
+        <v>1.053062580561337</v>
       </c>
       <c r="M21">
-        <v>0.9892036225607064</v>
+        <v>1.060904143674523</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9504072959774081</v>
+        <v>1.041549992742403</v>
       </c>
       <c r="D22">
-        <v>0.9806891242791139</v>
+        <v>1.040689986220392</v>
       </c>
       <c r="E22">
-        <v>0.968276193944439</v>
+        <v>1.048444796090101</v>
       </c>
       <c r="F22">
-        <v>0.9661809251204708</v>
+        <v>1.056182283052372</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029017353812778</v>
+        <v>1.035881560302275</v>
       </c>
       <c r="J22">
-        <v>0.9834897518618305</v>
+        <v>1.048338291107298</v>
       </c>
       <c r="K22">
-        <v>0.9966530916704245</v>
+        <v>1.044381069942321</v>
       </c>
       <c r="L22">
-        <v>0.9845034358172278</v>
+        <v>1.052106451256122</v>
       </c>
       <c r="M22">
-        <v>0.9824534930472042</v>
+        <v>1.059815052077418</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9545526710554486</v>
+        <v>1.042179731971778</v>
       </c>
       <c r="D23">
-        <v>0.9837235605208698</v>
+        <v>1.041152142752546</v>
       </c>
       <c r="E23">
-        <v>0.9719118207165507</v>
+        <v>1.04902142307961</v>
       </c>
       <c r="F23">
-        <v>0.9702048381918759</v>
+        <v>1.056829030818245</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030389745447522</v>
+        <v>1.036038486182639</v>
       </c>
       <c r="J23">
-        <v>0.9867125173002612</v>
+        <v>1.048835181583011</v>
       </c>
       <c r="K23">
-        <v>0.9993040330266515</v>
+        <v>1.04477355965008</v>
       </c>
       <c r="L23">
-        <v>0.9877347646350302</v>
+        <v>1.052613594655006</v>
       </c>
       <c r="M23">
-        <v>0.986063468775135</v>
+        <v>1.06039266187603</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9700921075470205</v>
+        <v>1.044652735335577</v>
       </c>
       <c r="D24">
-        <v>0.9951202431414141</v>
+        <v>1.042965809959945</v>
       </c>
       <c r="E24">
-        <v>0.985568630146591</v>
+        <v>1.05128643205733</v>
       </c>
       <c r="F24">
-        <v>0.9853214275809411</v>
+        <v>1.059370444727667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03550369474431</v>
+        <v>1.036649899277541</v>
       </c>
       <c r="J24">
-        <v>0.9987921133779206</v>
+        <v>1.050784656181427</v>
       </c>
       <c r="K24">
-        <v>1.009233598146785</v>
+        <v>1.046311741710012</v>
       </c>
       <c r="L24">
-        <v>0.9998540068759618</v>
+        <v>1.054604001714299</v>
       </c>
       <c r="M24">
-        <v>0.9996113139865694</v>
+        <v>1.062660927279984</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9867520450296187</v>
+        <v>1.04751015266267</v>
       </c>
       <c r="D25">
-        <v>1.007370253025457</v>
+        <v>1.045058793808688</v>
       </c>
       <c r="E25">
-        <v>1.000258453575436</v>
+        <v>1.053904691922899</v>
       </c>
       <c r="F25">
-        <v>1.001586553551641</v>
+        <v>1.062310230743898</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04091875529096</v>
+        <v>1.037346322542319</v>
       </c>
       <c r="J25">
-        <v>1.011733631685947</v>
+        <v>1.053033363803286</v>
       </c>
       <c r="K25">
-        <v>1.019855222652786</v>
+        <v>1.048082506830726</v>
       </c>
       <c r="L25">
-        <v>1.012852758709266</v>
+        <v>1.056901389603565</v>
       </c>
       <c r="M25">
-        <v>1.014160290145145</v>
+        <v>1.065281712089731</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_241/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049779759218475</v>
+        <v>0.999128509802896</v>
       </c>
       <c r="D2">
-        <v>1.046719066332263</v>
+        <v>1.016485855226506</v>
       </c>
       <c r="E2">
-        <v>1.055985252378272</v>
+        <v>1.01120290602901</v>
       </c>
       <c r="F2">
-        <v>1.064647919388417</v>
+        <v>1.013710839572542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037891377006613</v>
+        <v>1.044882787476458</v>
       </c>
       <c r="J2">
-        <v>1.05481639696388</v>
+        <v>1.02133531827433</v>
       </c>
       <c r="K2">
-        <v>1.049483715523721</v>
+        <v>1.027720196033458</v>
       </c>
       <c r="L2">
-        <v>1.058724206674619</v>
+        <v>1.02250834209705</v>
       </c>
       <c r="M2">
-        <v>1.067363290219442</v>
+        <v>1.024982409001627</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051422459474209</v>
+        <v>1.007664093016759</v>
       </c>
       <c r="D3">
-        <v>1.047919464890359</v>
+        <v>1.022777307249273</v>
       </c>
       <c r="E3">
-        <v>1.057491640126349</v>
+        <v>1.018766364993568</v>
       </c>
       <c r="F3">
-        <v>1.066341427089232</v>
+        <v>1.022094074236934</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038281166959796</v>
+        <v>1.047580657694905</v>
       </c>
       <c r="J3">
-        <v>1.056105125808099</v>
+        <v>1.027947985447482</v>
       </c>
       <c r="K3">
-        <v>1.050494804132188</v>
+        <v>1.03312681259634</v>
       </c>
       <c r="L3">
-        <v>1.060042379528144</v>
+        <v>1.029164628039494</v>
       </c>
       <c r="M3">
-        <v>1.068869846434747</v>
+        <v>1.03245185149372</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05248305601586</v>
+        <v>1.013000115960674</v>
       </c>
       <c r="D4">
-        <v>1.048693893065422</v>
+        <v>1.026711474996381</v>
       </c>
       <c r="E4">
-        <v>1.058464461607182</v>
+        <v>1.023501062280377</v>
       </c>
       <c r="F4">
-        <v>1.067435532105449</v>
+        <v>1.027344233926713</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038530648265959</v>
+        <v>1.049249990188614</v>
       </c>
       <c r="J4">
-        <v>1.056936347906305</v>
+        <v>1.032077023681234</v>
       </c>
       <c r="K4">
-        <v>1.051146174450458</v>
+        <v>1.036497860350534</v>
       </c>
       <c r="L4">
-        <v>1.060892912643392</v>
+        <v>1.033323888718209</v>
       </c>
       <c r="M4">
-        <v>1.069842515340153</v>
+        <v>1.037123470005183</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052928382075462</v>
+        <v>1.015201442670433</v>
       </c>
       <c r="D5">
-        <v>1.049018917043822</v>
+        <v>1.028334581197214</v>
       </c>
       <c r="E5">
-        <v>1.058872987815109</v>
+        <v>1.025455752679374</v>
       </c>
       <c r="F5">
-        <v>1.067895096139295</v>
+        <v>1.029512311285726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03863487767489</v>
+        <v>1.049934433481575</v>
       </c>
       <c r="J5">
-        <v>1.057285163016613</v>
+        <v>1.033779169766631</v>
       </c>
       <c r="K5">
-        <v>1.051419330001378</v>
+        <v>1.037886311352339</v>
       </c>
       <c r="L5">
-        <v>1.061249908183965</v>
+        <v>1.03503920903464</v>
       </c>
       <c r="M5">
-        <v>1.070250915126878</v>
+        <v>1.039051125045501</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053003122437076</v>
+        <v>1.015568673523385</v>
       </c>
       <c r="D6">
-        <v>1.049073458217405</v>
+        <v>1.028605353597758</v>
       </c>
       <c r="E6">
-        <v>1.058941555179441</v>
+        <v>1.025781920711845</v>
       </c>
       <c r="F6">
-        <v>1.067972235961908</v>
+        <v>1.029874121101262</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038652340077506</v>
+        <v>1.05004836308143</v>
       </c>
       <c r="J6">
-        <v>1.05734369388453</v>
+        <v>1.03406305026062</v>
       </c>
       <c r="K6">
-        <v>1.051465154314116</v>
+        <v>1.038117801267326</v>
       </c>
       <c r="L6">
-        <v>1.061309816226209</v>
+        <v>1.035325328771591</v>
       </c>
       <c r="M6">
-        <v>1.070319457622475</v>
+        <v>1.03937272393818</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052489008624616</v>
+        <v>1.013029691423412</v>
       </c>
       <c r="D7">
-        <v>1.048698238185375</v>
+        <v>1.026733281689876</v>
       </c>
       <c r="E7">
-        <v>1.058469922100866</v>
+        <v>1.023527318554027</v>
       </c>
       <c r="F7">
-        <v>1.067441674369938</v>
+        <v>1.027373354164453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038532043543998</v>
+        <v>1.049259202729102</v>
       </c>
       <c r="J7">
-        <v>1.056941011256555</v>
+        <v>1.032099897563194</v>
       </c>
       <c r="K7">
-        <v>1.051149827032658</v>
+        <v>1.036516523616814</v>
       </c>
       <c r="L7">
-        <v>1.060897685056856</v>
+        <v>1.033346936804903</v>
       </c>
       <c r="M7">
-        <v>1.069847974388837</v>
+        <v>1.037149367038052</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050335409035238</v>
+        <v>1.002053690634669</v>
       </c>
       <c r="D8">
-        <v>1.047125229401511</v>
+        <v>1.018641638589435</v>
       </c>
       <c r="E8">
-        <v>1.056494745022864</v>
+        <v>1.013793516434464</v>
       </c>
       <c r="F8">
-        <v>1.065220608550963</v>
+        <v>1.016581774595491</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038023677354945</v>
+        <v>1.045810953466376</v>
       </c>
       <c r="J8">
-        <v>1.055252487491488</v>
+        <v>1.023602486958818</v>
       </c>
       <c r="K8">
-        <v>1.049826016437621</v>
+        <v>1.029574881564288</v>
       </c>
       <c r="L8">
-        <v>1.059170194438135</v>
+        <v>1.024789831925905</v>
       </c>
       <c r="M8">
-        <v>1.067872894169933</v>
+        <v>1.027541723717327</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046522046270962</v>
+        <v>0.9811348547043285</v>
       </c>
       <c r="D9">
-        <v>1.04433536220758</v>
+        <v>1.003236885174421</v>
       </c>
       <c r="E9">
-        <v>1.052999143638482</v>
+        <v>0.9953000302463694</v>
       </c>
       <c r="F9">
-        <v>1.061293227389028</v>
+        <v>0.996095542064994</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037106751968268</v>
+        <v>1.039102091207128</v>
       </c>
       <c r="J9">
-        <v>1.052256228533952</v>
+        <v>1.007371841113801</v>
       </c>
       <c r="K9">
-        <v>1.047470986582579</v>
+        <v>1.016277663569481</v>
       </c>
       <c r="L9">
-        <v>1.056107247268729</v>
+        <v>1.008469824230794</v>
       </c>
       <c r="M9">
-        <v>1.06437544449139</v>
+        <v>1.009252285611203</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04396667154221</v>
+        <v>0.9658930479615508</v>
       </c>
       <c r="D10">
-        <v>1.042462862256719</v>
+        <v>0.9920374931321412</v>
       </c>
       <c r="E10">
-        <v>1.050657977241498</v>
+        <v>0.9818739504891608</v>
       </c>
       <c r="F10">
-        <v>1.058665140362748</v>
+        <v>0.9812315259017241</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036481066908011</v>
+        <v>1.03412706624825</v>
       </c>
       <c r="J10">
-        <v>1.050244127970698</v>
+        <v>0.9955284205511771</v>
       </c>
       <c r="K10">
-        <v>1.045885527599277</v>
+        <v>1.006552016896484</v>
       </c>
       <c r="L10">
-        <v>1.054052009273655</v>
+        <v>0.9965783745406507</v>
       </c>
       <c r="M10">
-        <v>1.062031666704186</v>
+        <v>0.9959481261441416</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042856887425301</v>
+        <v>0.9589214042082426</v>
       </c>
       <c r="D11">
-        <v>1.041648957671883</v>
+        <v>0.9869242726010861</v>
       </c>
       <c r="E11">
-        <v>1.049641533644228</v>
+        <v>0.9757468015786022</v>
       </c>
       <c r="F11">
-        <v>1.05752466011835</v>
+        <v>0.9744494869320716</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036206676841025</v>
+        <v>1.03183263136461</v>
       </c>
       <c r="J11">
-        <v>1.049369277515472</v>
+        <v>0.9901089032145272</v>
       </c>
       <c r="K11">
-        <v>1.045195245158143</v>
+        <v>1.002097063871335</v>
       </c>
       <c r="L11">
-        <v>1.053158791693065</v>
+        <v>0.9911410645017046</v>
       </c>
       <c r="M11">
-        <v>1.061013760375718</v>
+        <v>0.9898698883290108</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042444155707767</v>
+        <v>0.9562693449372135</v>
       </c>
       <c r="D12">
-        <v>1.041346162354366</v>
+        <v>0.9849809343960326</v>
       </c>
       <c r="E12">
-        <v>1.049263563034532</v>
+        <v>0.9734183373343415</v>
       </c>
       <c r="F12">
-        <v>1.057100645555484</v>
+        <v>0.9718722721697491</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036104231654054</v>
+        <v>1.030957160216043</v>
       </c>
       <c r="J12">
-        <v>1.049043767548334</v>
+        <v>0.988047123383166</v>
       </c>
       <c r="K12">
-        <v>1.04493826872574</v>
+        <v>1.000401645803313</v>
       </c>
       <c r="L12">
-        <v>1.052826506058558</v>
+        <v>0.9890731558093598</v>
       </c>
       <c r="M12">
-        <v>1.060635196146535</v>
+        <v>0.9875589511675672</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042532711301673</v>
+        <v>0.9568411665778764</v>
       </c>
       <c r="D13">
-        <v>1.04141113461779</v>
+        <v>0.9853998599834365</v>
       </c>
       <c r="E13">
-        <v>1.049344658133246</v>
+        <v>0.9739202773054402</v>
       </c>
       <c r="F13">
-        <v>1.057191615961115</v>
+        <v>0.9724278303100947</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03612623029426</v>
+        <v>1.031146040748013</v>
       </c>
       <c r="J13">
-        <v>1.04911361567897</v>
+        <v>0.9884916763062693</v>
       </c>
       <c r="K13">
-        <v>1.044993417193804</v>
+        <v>1.000767230484229</v>
       </c>
       <c r="L13">
-        <v>1.0528978054815</v>
+        <v>0.9895190011374589</v>
       </c>
       <c r="M13">
-        <v>1.06071642086142</v>
+        <v>0.9880571615684013</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042822781348342</v>
+        <v>0.958703501014705</v>
       </c>
       <c r="D14">
-        <v>1.041623938258286</v>
+        <v>0.9867645626943526</v>
       </c>
       <c r="E14">
-        <v>1.04961029907727</v>
+        <v>0.9755554372016317</v>
       </c>
       <c r="F14">
-        <v>1.057489618965766</v>
+        <v>0.9742376770200047</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036198219413001</v>
+        <v>1.031760751949062</v>
       </c>
       <c r="J14">
-        <v>1.04934238207596</v>
+        <v>0.9899395016696836</v>
       </c>
       <c r="K14">
-        <v>1.045174015182269</v>
+        <v>1.001957775099598</v>
       </c>
       <c r="L14">
-        <v>1.053131335222799</v>
+        <v>0.9909711463602846</v>
       </c>
       <c r="M14">
-        <v>1.060982477768453</v>
+        <v>0.9896799861918055</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043001435271375</v>
+        <v>0.9598424505263079</v>
       </c>
       <c r="D15">
-        <v>1.041754990396264</v>
+        <v>0.9875994178064549</v>
       </c>
       <c r="E15">
-        <v>1.049773913450694</v>
+        <v>0.9765557686169579</v>
       </c>
       <c r="F15">
-        <v>1.057673176439891</v>
+        <v>0.9753448892352603</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036242504662504</v>
+        <v>1.032136349126251</v>
       </c>
       <c r="J15">
-        <v>1.049483259184321</v>
+        <v>0.9908249345496958</v>
       </c>
       <c r="K15">
-        <v>1.045285211136155</v>
+        <v>1.002685790148422</v>
       </c>
       <c r="L15">
-        <v>1.053275153369447</v>
+        <v>0.9918593054360758</v>
       </c>
       <c r="M15">
-        <v>1.061146341753088</v>
+        <v>0.9906726306162712</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044040253733997</v>
+        <v>0.9663473588213151</v>
       </c>
       <c r="D16">
-        <v>1.04251681233129</v>
+        <v>0.9923709209534951</v>
       </c>
       <c r="E16">
-        <v>1.050725377275118</v>
+        <v>0.9822735368825432</v>
       </c>
       <c r="F16">
-        <v>1.058740776421532</v>
+        <v>0.9816738426996658</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036499203941616</v>
+        <v>1.034276210480882</v>
       </c>
       <c r="J16">
-        <v>1.050302112175512</v>
+        <v>0.9958815537792629</v>
       </c>
       <c r="K16">
-        <v>1.045931259241769</v>
+        <v>1.006842213360321</v>
       </c>
       <c r="L16">
-        <v>1.05411121899995</v>
+        <v>0.9969327542310414</v>
       </c>
       <c r="M16">
-        <v>1.062099156784269</v>
+        <v>0.996344380047367</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044690986306284</v>
+        <v>0.9703238269812677</v>
       </c>
       <c r="D17">
-        <v>1.04299384674108</v>
+        <v>0.9952904228858187</v>
       </c>
       <c r="E17">
-        <v>1.051321473201501</v>
+        <v>0.985772608654406</v>
       </c>
       <c r="F17">
-        <v>1.059409774450106</v>
+        <v>0.9855472346179691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036659294297539</v>
+        <v>1.035579537218466</v>
       </c>
       <c r="J17">
-        <v>1.05081478606875</v>
+        <v>0.9989722005611564</v>
       </c>
       <c r="K17">
-        <v>1.04633549319946</v>
+        <v>1.00938153504076</v>
       </c>
       <c r="L17">
-        <v>1.054634773281223</v>
+        <v>1.000034780597286</v>
       </c>
       <c r="M17">
-        <v>1.062696011111117</v>
+        <v>0.9998135092277451</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045070231135891</v>
+        <v>0.9726078567850732</v>
       </c>
       <c r="D18">
-        <v>1.043271794388823</v>
+        <v>0.9969681991706866</v>
       </c>
       <c r="E18">
-        <v>1.051668905883737</v>
+        <v>0.9877837155575835</v>
       </c>
       <c r="F18">
-        <v>1.059799749278852</v>
+        <v>0.9877736133276681</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036752338313102</v>
+        <v>1.036326379084365</v>
       </c>
       <c r="J18">
-        <v>1.051113473710274</v>
+        <v>1.000747198119917</v>
       </c>
       <c r="K18">
-        <v>1.046570913038085</v>
+        <v>1.010839471465631</v>
       </c>
       <c r="L18">
-        <v>1.054939837348564</v>
+        <v>1.001816703307067</v>
       </c>
       <c r="M18">
-        <v>1.063043854152571</v>
+        <v>1.001806781101126</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045199490570631</v>
+        <v>0.9733808348462475</v>
       </c>
       <c r="D19">
-        <v>1.04336651700809</v>
+        <v>0.9975361397729551</v>
       </c>
       <c r="E19">
-        <v>1.051787327715473</v>
+        <v>0.9884645408117714</v>
       </c>
       <c r="F19">
-        <v>1.059932680251583</v>
+        <v>0.9885273391631726</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036784007389951</v>
+        <v>1.036578825407173</v>
       </c>
       <c r="J19">
-        <v>1.051215260059891</v>
+        <v>1.001347861983399</v>
       </c>
       <c r="K19">
-        <v>1.046651123810353</v>
+        <v>1.011332766015422</v>
       </c>
       <c r="L19">
-        <v>1.055043803000409</v>
+        <v>1.002419776475297</v>
       </c>
       <c r="M19">
-        <v>1.063162410490579</v>
+        <v>1.002481463871039</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044621201696357</v>
+        <v>0.9699008930870781</v>
       </c>
       <c r="D20">
-        <v>1.042942696400481</v>
+        <v>0.994979815922919</v>
       </c>
       <c r="E20">
-        <v>1.051257544729012</v>
+        <v>0.9854003147244186</v>
       </c>
       <c r="F20">
-        <v>1.059338022257549</v>
+        <v>0.9851351008200795</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036642152691697</v>
+        <v>1.035441099591357</v>
       </c>
       <c r="J20">
-        <v>1.050759816918101</v>
+        <v>0.9986435044377593</v>
       </c>
       <c r="K20">
-        <v>1.046292160329785</v>
+        <v>1.009111517361187</v>
       </c>
       <c r="L20">
-        <v>1.054578633657541</v>
+        <v>0.9997048336118286</v>
       </c>
       <c r="M20">
-        <v>1.062632004582673</v>
+        <v>0.9994444665064082</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042737377100782</v>
+        <v>0.9581568734790867</v>
       </c>
       <c r="D21">
-        <v>1.041561286074653</v>
+        <v>0.9863639472746731</v>
       </c>
       <c r="E21">
-        <v>1.049532086082275</v>
+        <v>0.9750754229315078</v>
       </c>
       <c r="F21">
-        <v>1.057401875368557</v>
+        <v>0.9737063793154479</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036177034923129</v>
+        <v>1.031580394749708</v>
       </c>
       <c r="J21">
-        <v>1.049275031388861</v>
+        <v>0.9895145425060479</v>
       </c>
       <c r="K21">
-        <v>1.045120849513275</v>
+        <v>1.00160834734843</v>
       </c>
       <c r="L21">
-        <v>1.053062580561337</v>
+        <v>0.9905449015896804</v>
       </c>
       <c r="M21">
-        <v>1.060904143674523</v>
+        <v>0.9892036225607073</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041549992742403</v>
+        <v>0.9504072959774098</v>
       </c>
       <c r="D22">
-        <v>1.040689986220392</v>
+        <v>0.9806891242791151</v>
       </c>
       <c r="E22">
-        <v>1.048444796090101</v>
+        <v>0.96827619394444</v>
       </c>
       <c r="F22">
-        <v>1.056182283052372</v>
+        <v>0.9661809251204722</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035881560302275</v>
+        <v>1.029017353812778</v>
       </c>
       <c r="J22">
-        <v>1.048338291107298</v>
+        <v>0.9834897518618317</v>
       </c>
       <c r="K22">
-        <v>1.044381069942321</v>
+        <v>0.9966530916704256</v>
       </c>
       <c r="L22">
-        <v>1.052106451256122</v>
+        <v>0.9845034358172289</v>
       </c>
       <c r="M22">
-        <v>1.059815052077418</v>
+        <v>0.9824534930472055</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042179731971778</v>
+        <v>0.9545526710554482</v>
       </c>
       <c r="D23">
-        <v>1.041152142752546</v>
+        <v>0.9837235605208695</v>
       </c>
       <c r="E23">
-        <v>1.04902142307961</v>
+        <v>0.9719118207165507</v>
       </c>
       <c r="F23">
-        <v>1.056829030818245</v>
+        <v>0.9702048381918761</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036038486182639</v>
+        <v>1.030389745447521</v>
       </c>
       <c r="J23">
-        <v>1.048835181583011</v>
+        <v>0.9867125173002605</v>
       </c>
       <c r="K23">
-        <v>1.04477355965008</v>
+        <v>0.9993040330266509</v>
       </c>
       <c r="L23">
-        <v>1.052613594655006</v>
+        <v>0.9877347646350301</v>
       </c>
       <c r="M23">
-        <v>1.06039266187603</v>
+        <v>0.9860634687751352</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044652735335577</v>
+        <v>0.9700921075470212</v>
       </c>
       <c r="D24">
-        <v>1.042965809959945</v>
+        <v>0.9951202431414148</v>
       </c>
       <c r="E24">
-        <v>1.05128643205733</v>
+        <v>0.9855686301465919</v>
       </c>
       <c r="F24">
-        <v>1.059370444727667</v>
+        <v>0.9853214275809422</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036649899277541</v>
+        <v>1.035503694744311</v>
       </c>
       <c r="J24">
-        <v>1.050784656181427</v>
+        <v>0.9987921133779215</v>
       </c>
       <c r="K24">
-        <v>1.046311741710012</v>
+        <v>1.009233598146786</v>
       </c>
       <c r="L24">
-        <v>1.054604001714299</v>
+        <v>0.9998540068759627</v>
       </c>
       <c r="M24">
-        <v>1.062660927279984</v>
+        <v>0.9996113139865703</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04751015266267</v>
+        <v>0.986752045029618</v>
       </c>
       <c r="D25">
-        <v>1.045058793808688</v>
+        <v>1.007370253025456</v>
       </c>
       <c r="E25">
-        <v>1.053904691922899</v>
+        <v>1.000258453575435</v>
       </c>
       <c r="F25">
-        <v>1.062310230743898</v>
+        <v>1.00158655355164</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037346322542319</v>
+        <v>1.04091875529096</v>
       </c>
       <c r="J25">
-        <v>1.053033363803286</v>
+        <v>1.011733631685946</v>
       </c>
       <c r="K25">
-        <v>1.048082506830726</v>
+        <v>1.019855222652786</v>
       </c>
       <c r="L25">
-        <v>1.056901389603565</v>
+        <v>1.012852758709266</v>
       </c>
       <c r="M25">
-        <v>1.065281712089731</v>
+        <v>1.014160290145144</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
